--- a/data/trans_orig/P55S7-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P55S7-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF31F80C-5A09-4EE4-A09A-C7C2ADAA065A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA3AC25-9514-4A1E-B504-91195B5DD714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05ED06C1-D0D4-4D44-AD6A-A85489CE5514}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57E2E520-36F6-46B2-83ED-F5B3275A22F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -510,7 +510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4E838A-2EE1-4591-A0B1-65044A2C7977}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADD2A1A-CA63-4DD4-B7E6-C7B6B291CF38}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P55S7-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P55S7-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA3AC25-9514-4A1E-B504-91195B5DD714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81DFF5FF-CFB0-4BAC-953A-84D0A643E497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57E2E520-36F6-46B2-83ED-F5B3275A22F9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{365C78D1-272C-44DB-98BB-87C1FD2A1F01}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -510,7 +510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADD2A1A-CA63-4DD4-B7E6-C7B6B291CF38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B482B93D-BA6B-4B63-AB73-E59A1DDB3E8E}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
